--- a/medicine/Psychotrope/Un_vin_presque_parfait/Un_vin_presque_parfait.xlsx
+++ b/medicine/Psychotrope/Un_vin_presque_parfait/Un_vin_presque_parfait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un vin presque parfait est un événement dont le but est de sélectionner des vins par un jury. La sélection organisée par M6 (chaîne de télévision du Groupe Metropole Television) et par Armonia (organisateur du  Concours international des vins à Lyon). À l’issue de la sélection un guide est distribué dans les librairies.
@@ -512,7 +524,9 @@
           <t>La notation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les vins sont notés selon trois critères :
 les qualités organoleptiques : dégustation à l’aveugle du vin (50 % de la note) ;
@@ -545,7 +559,9 @@
           <t>Le Jury</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La sélection est présidée par Fabrice Sommier Meilleur ouvrier de France 2007 et Chef Sommelier du restaurant Georges Blanc.
 Chaque table de jury est composée de professionnels du vin (œnologues, sommeliers, cavistes, courtiers, producteurs, chefs cuisiniers….) et d’amateurs éclairés. Les professionnels du vin vérifient la conformité. La dégustation se fait à l’aveugle.
@@ -577,7 +593,9 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les producteurs sont autorisés à apposer un macaron autocollant sur les bouteilles récompensées.
 </t>
@@ -608,7 +626,9 @@
           <t>Présidents d'honneur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2013 :  Yoni Saada  – chef, finaliste  Top Chef 2013.
 2012 : Dominique Chapatte –  journaliste, producteur, animateur l'émission d'automobiles Turbo.
@@ -640,9 +660,11 @@
           <t>Lieu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2011 : Palais Brongniart, Paris 2e [1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2011 : Palais Brongniart, Paris 2e .
 2012 : Coupole du Printemps Haussmann Paris 9e
 2013 : Coupole du Printemps Haussmann Paris 9e</t>
         </is>
@@ -672,11 +694,13 @@
           <t>Chiffres clefs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2011 : 1228 échantillons dégustés et 408 vins sélectionnés[2].
-2012 : 1226 échantillons dégustés et 453 vins sélectionnés[3].
-2013 : 1020 échantillons dégustés et 410 vins sélectionnés[4].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2011 : 1228 échantillons dégustés et 408 vins sélectionnés.
+2012 : 1226 échantillons dégustés et 453 vins sélectionnés.
+2013 : 1020 échantillons dégustés et 410 vins sélectionnés.</t>
         </is>
       </c>
     </row>
@@ -704,9 +728,11 @@
           <t>Le guide Un vin presque parfait</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>À l'issue de la sélection un livre « Un vin presque parfait » est publié dans les librairies[5]. Il propose les vins classés en 10 régions.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>À l'issue de la sélection un livre « Un vin presque parfait » est publié dans les librairies. Il propose les vins classés en 10 régions.
 Les vins sont commentés par Fabrice Sommier, Meilleur ouvrier de France Sommellerie.
 60 pages dans le livre sont consacrées à des conseils pour acheter, conserver et servir le vin.
 Chaque vin est décrit selon les éléments suivants :
@@ -745,7 +771,9 @@
           <t>Exemple domaines récompensés</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Saumur - Ackerman Sélection 2012
 Domaine Monternot Sélection 2012
